--- a/data/pca/factorExposure/factorExposure_2012-02-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-02-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01385897083293368</v>
+        <v>0.0147929339680345</v>
       </c>
       <c r="C2">
-        <v>-0.03118570767714456</v>
+        <v>0.02657507455316473</v>
       </c>
       <c r="D2">
-        <v>0.002686595362853021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.005679155123226159</v>
+      </c>
+      <c r="E2">
+        <v>-0.01141334490766729</v>
+      </c>
+      <c r="F2">
+        <v>-0.01249853973836078</v>
+      </c>
+      <c r="G2">
+        <v>-0.01644528854989225</v>
+      </c>
+      <c r="H2">
+        <v>0.05113194141494151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07266409455480283</v>
+        <v>0.08705429250191911</v>
       </c>
       <c r="C4">
-        <v>-0.05000548127714882</v>
+        <v>0.03681817733686224</v>
       </c>
       <c r="D4">
-        <v>0.0843299812050121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06572686194566335</v>
+      </c>
+      <c r="E4">
+        <v>-0.01451501396231691</v>
+      </c>
+      <c r="F4">
+        <v>-0.03081500447616502</v>
+      </c>
+      <c r="G4">
+        <v>-0.004259703864399007</v>
+      </c>
+      <c r="H4">
+        <v>-0.03827738665858282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1077124593895198</v>
+        <v>0.1189596332048986</v>
       </c>
       <c r="C6">
-        <v>-0.05581264452548058</v>
+        <v>0.03485990488521652</v>
       </c>
       <c r="D6">
-        <v>-0.003104114054431086</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01182954942095381</v>
+      </c>
+      <c r="E6">
+        <v>0.003068986915361769</v>
+      </c>
+      <c r="F6">
+        <v>-0.05109856353690217</v>
+      </c>
+      <c r="G6">
+        <v>-0.03293526092721152</v>
+      </c>
+      <c r="H6">
+        <v>0.1082129371652469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.04926596243148224</v>
+        <v>0.06362573938271363</v>
       </c>
       <c r="C7">
-        <v>-0.02859598204182491</v>
+        <v>0.02036531883135788</v>
       </c>
       <c r="D7">
-        <v>0.04680169816286923</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.04586321641869463</v>
+      </c>
+      <c r="E7">
+        <v>-0.03664098879670152</v>
+      </c>
+      <c r="F7">
+        <v>-0.0337716785153342</v>
+      </c>
+      <c r="G7">
+        <v>0.03656694112867058</v>
+      </c>
+      <c r="H7">
+        <v>-0.004906755051572361</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03832722409482872</v>
+        <v>0.04127028578872895</v>
       </c>
       <c r="C8">
-        <v>-0.01363090657418801</v>
+        <v>0.008933081806253532</v>
       </c>
       <c r="D8">
-        <v>0.05879041307854949</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02509804846155735</v>
+      </c>
+      <c r="E8">
+        <v>-0.0356490135344109</v>
+      </c>
+      <c r="F8">
+        <v>-0.04985018370978217</v>
+      </c>
+      <c r="G8">
+        <v>-0.05543866746425275</v>
+      </c>
+      <c r="H8">
+        <v>0.01226288871135746</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06638016642599097</v>
+        <v>0.07847913308337713</v>
       </c>
       <c r="C9">
-        <v>-0.04107660368642509</v>
+        <v>0.02751845747876611</v>
       </c>
       <c r="D9">
-        <v>0.0723546149857837</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06432277760765713</v>
+      </c>
+      <c r="E9">
+        <v>-0.03974200266843887</v>
+      </c>
+      <c r="F9">
+        <v>-0.02908965394497678</v>
+      </c>
+      <c r="G9">
+        <v>-0.006982157039548893</v>
+      </c>
+      <c r="H9">
+        <v>-0.04291692318185546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02744285794580702</v>
+        <v>0.03322631348448678</v>
       </c>
       <c r="C10">
-        <v>-0.03361783929278807</v>
+        <v>0.04474281260841903</v>
       </c>
       <c r="D10">
-        <v>-0.1790123772210928</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.173645422247</v>
+      </c>
+      <c r="E10">
+        <v>-0.04908735688730709</v>
+      </c>
+      <c r="F10">
+        <v>-0.04439641012912378</v>
+      </c>
+      <c r="G10">
+        <v>0.02879363657448618</v>
+      </c>
+      <c r="H10">
+        <v>0.04632977705693256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07004733060880253</v>
+        <v>0.07650440369410021</v>
       </c>
       <c r="C11">
-        <v>-0.04666910737862948</v>
+        <v>0.02709847237494569</v>
       </c>
       <c r="D11">
-        <v>0.05592909923053458</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06258551978963763</v>
+      </c>
+      <c r="E11">
+        <v>0.001118079672141033</v>
+      </c>
+      <c r="F11">
+        <v>-0.02865252045499803</v>
+      </c>
+      <c r="G11">
+        <v>0.003730008404619463</v>
+      </c>
+      <c r="H11">
+        <v>-0.07944015353228773</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05832454928710153</v>
+        <v>0.0676002825277051</v>
       </c>
       <c r="C12">
-        <v>-0.05211952775914776</v>
+        <v>0.03706449134545037</v>
       </c>
       <c r="D12">
-        <v>0.04305378930391376</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04826592636154455</v>
+      </c>
+      <c r="E12">
+        <v>-0.01321819198701501</v>
+      </c>
+      <c r="F12">
+        <v>-0.02063917987232038</v>
+      </c>
+      <c r="G12">
+        <v>-0.002115253057296693</v>
+      </c>
+      <c r="H12">
+        <v>-0.03738049982571845</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06063852629406229</v>
+        <v>0.06529961242559468</v>
       </c>
       <c r="C13">
-        <v>-0.03974567817211806</v>
+        <v>0.02499663058903937</v>
       </c>
       <c r="D13">
-        <v>0.06035948234292744</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.0428899146082351</v>
+      </c>
+      <c r="E13">
+        <v>-0.01747024419409019</v>
+      </c>
+      <c r="F13">
+        <v>-0.006747687598637261</v>
+      </c>
+      <c r="G13">
+        <v>0.009206188129035469</v>
+      </c>
+      <c r="H13">
+        <v>-0.03723980500186164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0328739691084224</v>
+        <v>0.04099208973981884</v>
       </c>
       <c r="C14">
-        <v>-0.03096475757778666</v>
+        <v>0.02708529998360363</v>
       </c>
       <c r="D14">
-        <v>0.0002099697185741029</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.007338606677962474</v>
+      </c>
+      <c r="E14">
+        <v>-0.03335675764550081</v>
+      </c>
+      <c r="F14">
+        <v>-0.01059297587224668</v>
+      </c>
+      <c r="G14">
+        <v>-0.00437351124463723</v>
+      </c>
+      <c r="H14">
+        <v>-0.0590482088337457</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04026243382112694</v>
+        <v>0.04024619417452484</v>
       </c>
       <c r="C15">
-        <v>-0.01082099427515152</v>
+        <v>0.003632612535489122</v>
       </c>
       <c r="D15">
-        <v>0.01748030771588483</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.003731285977638915</v>
+      </c>
+      <c r="E15">
+        <v>-0.04111823989900579</v>
+      </c>
+      <c r="F15">
+        <v>0.008363816179332982</v>
+      </c>
+      <c r="G15">
+        <v>-0.02439564122860362</v>
+      </c>
+      <c r="H15">
+        <v>-0.03935438249738488</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06039948496696897</v>
+        <v>0.07045435071203926</v>
       </c>
       <c r="C16">
-        <v>-0.04241672545442911</v>
+        <v>0.02799146248728031</v>
       </c>
       <c r="D16">
-        <v>0.04639884470872817</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06213726573149952</v>
+      </c>
+      <c r="E16">
+        <v>-0.006849822489016964</v>
+      </c>
+      <c r="F16">
+        <v>-0.02509420518621991</v>
+      </c>
+      <c r="G16">
+        <v>0.004976768008726645</v>
+      </c>
+      <c r="H16">
+        <v>-0.04853645188985183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0629749238254501</v>
+        <v>0.06403974835102312</v>
       </c>
       <c r="C20">
-        <v>-0.02941692931731432</v>
+        <v>0.01280147474589706</v>
       </c>
       <c r="D20">
-        <v>0.04932647123430976</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03778812205775941</v>
+      </c>
+      <c r="E20">
+        <v>-0.03151543474983403</v>
+      </c>
+      <c r="F20">
+        <v>-0.01938450768785967</v>
+      </c>
+      <c r="G20">
+        <v>-0.012010626823853</v>
+      </c>
+      <c r="H20">
+        <v>-0.03971077883359235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02530619530142943</v>
+        <v>0.02610868459341143</v>
       </c>
       <c r="C21">
-        <v>0.001940402123717043</v>
+        <v>-0.009732530791738317</v>
       </c>
       <c r="D21">
-        <v>0.02287352600932456</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0263589212455052</v>
+      </c>
+      <c r="E21">
+        <v>-0.03930452235474342</v>
+      </c>
+      <c r="F21">
+        <v>0.01490270561393984</v>
+      </c>
+      <c r="G21">
+        <v>-0.00738522164209447</v>
+      </c>
+      <c r="H21">
+        <v>0.0434360334012998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0783409218474897</v>
+        <v>0.07297195506915097</v>
       </c>
       <c r="C22">
-        <v>-0.06045195693424852</v>
+        <v>0.03892474062662341</v>
       </c>
       <c r="D22">
-        <v>0.1044661297224892</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.07097852755854732</v>
+      </c>
+      <c r="E22">
+        <v>-0.5619216103566248</v>
+      </c>
+      <c r="F22">
+        <v>0.2494229620792286</v>
+      </c>
+      <c r="G22">
+        <v>0.07405661311005846</v>
+      </c>
+      <c r="H22">
+        <v>0.1456055908194223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07931918985293666</v>
+        <v>0.07362326513259031</v>
       </c>
       <c r="C23">
-        <v>-0.05935514477970199</v>
+        <v>0.03760295830837081</v>
       </c>
       <c r="D23">
-        <v>0.1060555022378166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.07180889426382968</v>
+      </c>
+      <c r="E23">
+        <v>-0.5613217340234918</v>
+      </c>
+      <c r="F23">
+        <v>0.2480552727539342</v>
+      </c>
+      <c r="G23">
+        <v>0.07263429925474893</v>
+      </c>
+      <c r="H23">
+        <v>0.1406125435302954</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07079416823040924</v>
+        <v>0.07991048329788679</v>
       </c>
       <c r="C24">
-        <v>-0.05066362069018712</v>
+        <v>0.03300502708586783</v>
       </c>
       <c r="D24">
-        <v>0.05814694487067287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.0596875563171689</v>
+      </c>
+      <c r="E24">
+        <v>-0.01756478138790996</v>
+      </c>
+      <c r="F24">
+        <v>-0.03427533944353717</v>
+      </c>
+      <c r="G24">
+        <v>-0.01184581303580723</v>
+      </c>
+      <c r="H24">
+        <v>-0.05037774387359654</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07042355649960048</v>
+        <v>0.07782418658311741</v>
       </c>
       <c r="C25">
-        <v>-0.0561875869210332</v>
+        <v>0.03784986473871832</v>
       </c>
       <c r="D25">
-        <v>0.06530279591885756</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05318341900803993</v>
+      </c>
+      <c r="E25">
+        <v>-0.02128487758337747</v>
+      </c>
+      <c r="F25">
+        <v>-0.02361723219679858</v>
+      </c>
+      <c r="G25">
+        <v>-0.01850345649382708</v>
+      </c>
+      <c r="H25">
+        <v>-0.05258203236184379</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04532756906527363</v>
+        <v>0.04778045912744371</v>
       </c>
       <c r="C26">
-        <v>-0.01060554355168509</v>
+        <v>0.002749956032576292</v>
       </c>
       <c r="D26">
-        <v>0.01289878519725547</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01763452147007618</v>
+      </c>
+      <c r="E26">
+        <v>-0.05407775504970355</v>
+      </c>
+      <c r="F26">
+        <v>-0.02049135686166074</v>
+      </c>
+      <c r="G26">
+        <v>0.009125376382656767</v>
+      </c>
+      <c r="H26">
+        <v>-0.05260016348457006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.05204296785418751</v>
+        <v>0.06149584393602156</v>
       </c>
       <c r="C28">
-        <v>-0.07634979361133244</v>
+        <v>0.08926884553746409</v>
       </c>
       <c r="D28">
-        <v>-0.3138779282838149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.3082191360788237</v>
+      </c>
+      <c r="E28">
+        <v>-0.02756958016408555</v>
+      </c>
+      <c r="F28">
+        <v>-0.05310496555193463</v>
+      </c>
+      <c r="G28">
+        <v>-0.03397785726323161</v>
+      </c>
+      <c r="H28">
+        <v>0.04181536965216896</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04062448636757084</v>
+        <v>0.04870958017681341</v>
       </c>
       <c r="C29">
-        <v>-0.03053885879022038</v>
+        <v>0.02576621748225433</v>
       </c>
       <c r="D29">
-        <v>0.004279991639085081</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.006244488835748851</v>
+      </c>
+      <c r="E29">
+        <v>-0.05417869354773056</v>
+      </c>
+      <c r="F29">
+        <v>-0.00203065505231864</v>
+      </c>
+      <c r="G29">
+        <v>0.01009022170950826</v>
+      </c>
+      <c r="H29">
+        <v>-0.07919288551785469</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1242441615081263</v>
+        <v>0.1312561848392322</v>
       </c>
       <c r="C30">
-        <v>-0.0919168015231816</v>
+        <v>0.06352134128309214</v>
       </c>
       <c r="D30">
-        <v>0.1159208783973967</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.06931946769668501</v>
+      </c>
+      <c r="E30">
+        <v>-0.08577517643159688</v>
+      </c>
+      <c r="F30">
+        <v>0.02866738328148688</v>
+      </c>
+      <c r="G30">
+        <v>-0.08230279573122193</v>
+      </c>
+      <c r="H30">
+        <v>0.05282841113050053</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04305370769110419</v>
+        <v>0.0489055803575086</v>
       </c>
       <c r="C31">
-        <v>-0.02255494471322031</v>
+        <v>0.01416465960726829</v>
       </c>
       <c r="D31">
-        <v>0.02454795105323798</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02572833031351577</v>
+      </c>
+      <c r="E31">
+        <v>-0.0270127593370872</v>
+      </c>
+      <c r="F31">
+        <v>-0.009460046426539206</v>
+      </c>
+      <c r="G31">
+        <v>0.02857450941343779</v>
+      </c>
+      <c r="H31">
+        <v>-0.06227113651923171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03801661241501742</v>
+        <v>0.03908831933444278</v>
       </c>
       <c r="C32">
-        <v>-0.02598461940868608</v>
+        <v>0.01868131730149985</v>
       </c>
       <c r="D32">
-        <v>0.02225892759406268</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01222876664247721</v>
+      </c>
+      <c r="E32">
+        <v>-0.06574098057141681</v>
+      </c>
+      <c r="F32">
+        <v>0.02093201445321434</v>
+      </c>
+      <c r="G32">
+        <v>-0.01944019580788044</v>
+      </c>
+      <c r="H32">
+        <v>-0.07290563405100424</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08258680868802928</v>
+        <v>0.09595683214317016</v>
       </c>
       <c r="C33">
-        <v>-0.04302568070523034</v>
+        <v>0.02673593307266797</v>
       </c>
       <c r="D33">
-        <v>0.06492918183965668</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04840379877917583</v>
+      </c>
+      <c r="E33">
+        <v>-0.01471713836762031</v>
+      </c>
+      <c r="F33">
+        <v>-0.004795265983820908</v>
+      </c>
+      <c r="G33">
+        <v>0.006374965878600668</v>
+      </c>
+      <c r="H33">
+        <v>-0.05217252350763399</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05631754964565257</v>
+        <v>0.06275556547684256</v>
       </c>
       <c r="C34">
-        <v>-0.02788686974870854</v>
+        <v>0.01371190295594451</v>
       </c>
       <c r="D34">
-        <v>0.05552454419431237</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05329642947834538</v>
+      </c>
+      <c r="E34">
+        <v>-0.009264746082154185</v>
+      </c>
+      <c r="F34">
+        <v>-0.01718065406962286</v>
+      </c>
+      <c r="G34">
+        <v>0.001628023082689402</v>
+      </c>
+      <c r="H34">
+        <v>-0.05448874790419851</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03698391609461943</v>
+        <v>0.03961817982517193</v>
       </c>
       <c r="C35">
-        <v>-0.008480004162714248</v>
+        <v>0.003281874644617585</v>
       </c>
       <c r="D35">
-        <v>0.007425117528396831</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.007468679787433114</v>
+      </c>
+      <c r="E35">
+        <v>-0.01751852272557652</v>
+      </c>
+      <c r="F35">
+        <v>0.01615898097683569</v>
+      </c>
+      <c r="G35">
+        <v>0.01159882386581724</v>
+      </c>
+      <c r="H35">
+        <v>-0.01654318206573005</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02186820031769484</v>
+        <v>0.02855875051281587</v>
       </c>
       <c r="C36">
-        <v>-0.01697053232943288</v>
+        <v>0.01366966295168264</v>
       </c>
       <c r="D36">
-        <v>0.02183005920661661</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.0147171325860861</v>
+      </c>
+      <c r="E36">
+        <v>-0.04310385743884733</v>
+      </c>
+      <c r="F36">
+        <v>-0.01222101272014197</v>
+      </c>
+      <c r="G36">
+        <v>0.008829401146913779</v>
+      </c>
+      <c r="H36">
+        <v>-0.04240829787370107</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04063416180544437</v>
+        <v>0.04475190862438197</v>
       </c>
       <c r="C38">
-        <v>-0.004923298483511171</v>
+        <v>-0.0004778322566499747</v>
       </c>
       <c r="D38">
-        <v>0.01905841161528967</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01754431146208562</v>
+      </c>
+      <c r="E38">
+        <v>-0.05367601993181329</v>
+      </c>
+      <c r="F38">
+        <v>0.01416607990662996</v>
+      </c>
+      <c r="G38">
+        <v>-0.004281211726948304</v>
+      </c>
+      <c r="H38">
+        <v>-0.03122728016986648</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09079479452265493</v>
+        <v>0.1022218928167723</v>
       </c>
       <c r="C39">
-        <v>-0.07249329343499106</v>
+        <v>0.05080179973889848</v>
       </c>
       <c r="D39">
-        <v>0.05715514599000383</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05958244072078357</v>
+      </c>
+      <c r="E39">
+        <v>-1.742592935522027e-05</v>
+      </c>
+      <c r="F39">
+        <v>-0.002815259523178129</v>
+      </c>
+      <c r="G39">
+        <v>-0.03470241478187765</v>
+      </c>
+      <c r="H39">
+        <v>-0.04195664443729571</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07439356137575509</v>
+        <v>0.07067679946957107</v>
       </c>
       <c r="C40">
-        <v>-0.04112801271611545</v>
+        <v>0.0201490191699608</v>
       </c>
       <c r="D40">
-        <v>-0.002785580587948322</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01202949923600985</v>
+      </c>
+      <c r="E40">
+        <v>-0.01662682122630181</v>
+      </c>
+      <c r="F40">
+        <v>0.05823961629893007</v>
+      </c>
+      <c r="G40">
+        <v>-0.05591924817249579</v>
+      </c>
+      <c r="H40">
+        <v>0.1104960226854693</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04111765006955047</v>
+        <v>0.04392749539471462</v>
       </c>
       <c r="C41">
-        <v>-0.005646286939591987</v>
+        <v>-0.001919772741027358</v>
       </c>
       <c r="D41">
-        <v>0.03684666384766765</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.03379768288523991</v>
+      </c>
+      <c r="E41">
+        <v>-0.003669679057888033</v>
+      </c>
+      <c r="F41">
+        <v>0.01436655327677645</v>
+      </c>
+      <c r="G41">
+        <v>-0.009643197814668762</v>
+      </c>
+      <c r="H41">
+        <v>-0.03414088193528376</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04779578910754494</v>
+        <v>0.05824882334664837</v>
       </c>
       <c r="C43">
-        <v>-0.02594750352319689</v>
+        <v>0.01792106587615268</v>
       </c>
       <c r="D43">
-        <v>0.01823363621341526</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02493923492563871</v>
+      </c>
+      <c r="E43">
+        <v>-0.02080655222485283</v>
+      </c>
+      <c r="F43">
+        <v>-0.01204423847826446</v>
+      </c>
+      <c r="G43">
+        <v>0.0163060608220746</v>
+      </c>
+      <c r="H43">
+        <v>-0.05357470285189239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09169306555116438</v>
+        <v>0.09553238807341899</v>
       </c>
       <c r="C44">
-        <v>-0.09200648405960811</v>
+        <v>0.0658457044926833</v>
       </c>
       <c r="D44">
-        <v>0.08152192702221132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.05860108983884705</v>
+      </c>
+      <c r="E44">
+        <v>-0.08905901375655469</v>
+      </c>
+      <c r="F44">
+        <v>-0.03755028543832301</v>
+      </c>
+      <c r="G44">
+        <v>-0.02842420354917539</v>
+      </c>
+      <c r="H44">
+        <v>-0.009868161286163548</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02428946006113149</v>
+        <v>0.03370261617059768</v>
       </c>
       <c r="C46">
-        <v>-0.01330240738346565</v>
+        <v>0.01134581392458548</v>
       </c>
       <c r="D46">
-        <v>0.02106527429490621</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03187326416938382</v>
+      </c>
+      <c r="E46">
+        <v>-0.0289034550760417</v>
+      </c>
+      <c r="F46">
+        <v>-0.01333033873127634</v>
+      </c>
+      <c r="G46">
+        <v>0.005617835188852301</v>
+      </c>
+      <c r="H46">
+        <v>-0.04005218224744436</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.02918590841942198</v>
+        <v>0.03745249218722032</v>
       </c>
       <c r="C47">
-        <v>-0.02446633069536398</v>
+        <v>0.02047866645930044</v>
       </c>
       <c r="D47">
-        <v>0.01293450179127634</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01081710321710128</v>
+      </c>
+      <c r="E47">
+        <v>-0.05134083572438524</v>
+      </c>
+      <c r="F47">
+        <v>-0.006982003725193387</v>
+      </c>
+      <c r="G47">
+        <v>0.04339264705447259</v>
+      </c>
+      <c r="H47">
+        <v>-0.02401191531970088</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03304601564277453</v>
+        <v>0.03776897020929192</v>
       </c>
       <c r="C48">
-        <v>-0.01847771695399372</v>
+        <v>0.01120978646263912</v>
       </c>
       <c r="D48">
-        <v>0.03041431357500007</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01921838698306572</v>
+      </c>
+      <c r="E48">
+        <v>-0.04484899216988961</v>
+      </c>
+      <c r="F48">
+        <v>0.001331542506289736</v>
+      </c>
+      <c r="G48">
+        <v>-0.01054119437196767</v>
+      </c>
+      <c r="H48">
+        <v>-0.03971834561655822</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1596545936255311</v>
+        <v>0.1881029857674626</v>
       </c>
       <c r="C49">
-        <v>-0.06107484889002601</v>
+        <v>0.03701020005458088</v>
       </c>
       <c r="D49">
-        <v>-0.01558211178096035</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.02850322822695687</v>
+      </c>
+      <c r="E49">
+        <v>0.143796663491074</v>
+      </c>
+      <c r="F49">
+        <v>-0.08048683256088054</v>
+      </c>
+      <c r="G49">
+        <v>0.04842211167814665</v>
+      </c>
+      <c r="H49">
+        <v>0.2260981263853847</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03869241693902341</v>
+        <v>0.04591614777745878</v>
       </c>
       <c r="C50">
-        <v>-0.02606127714710549</v>
+        <v>0.01885374140401347</v>
       </c>
       <c r="D50">
-        <v>0.03828211975335005</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03100423688262497</v>
+      </c>
+      <c r="E50">
+        <v>-0.05039381819190502</v>
+      </c>
+      <c r="F50">
+        <v>-0.009651643671418093</v>
+      </c>
+      <c r="G50">
+        <v>0.02465581157346287</v>
+      </c>
+      <c r="H50">
+        <v>-0.06049418779792461</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02683755101502702</v>
+        <v>0.03022001190806773</v>
       </c>
       <c r="C51">
-        <v>-0.009679112426723729</v>
+        <v>0.004142183506007159</v>
       </c>
       <c r="D51">
-        <v>0.01443011346164779</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01267535280438863</v>
+      </c>
+      <c r="E51">
+        <v>-0.01435022018273219</v>
+      </c>
+      <c r="F51">
+        <v>-0.01933129167211584</v>
+      </c>
+      <c r="G51">
+        <v>0.001794662743381024</v>
+      </c>
+      <c r="H51">
+        <v>0.001571534102089951</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1515177015736704</v>
+        <v>0.1623413338959687</v>
       </c>
       <c r="C53">
-        <v>-0.07930898015215314</v>
+        <v>0.05288102849948363</v>
       </c>
       <c r="D53">
-        <v>0.0249075375361684</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01951705653130007</v>
+      </c>
+      <c r="E53">
+        <v>0.02487560706282906</v>
+      </c>
+      <c r="F53">
+        <v>-0.0207040155299196</v>
+      </c>
+      <c r="G53">
+        <v>0.02636986921575037</v>
+      </c>
+      <c r="H53">
+        <v>-0.1800765089626506</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05549348258060992</v>
+        <v>0.05819276621990221</v>
       </c>
       <c r="C54">
-        <v>-0.02592000112071742</v>
+        <v>0.01481321897394781</v>
       </c>
       <c r="D54">
-        <v>0.02298212752711643</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01693164175567973</v>
+      </c>
+      <c r="E54">
+        <v>-0.04976363664508364</v>
+      </c>
+      <c r="F54">
+        <v>-0.003561177702597014</v>
+      </c>
+      <c r="G54">
+        <v>-0.01090966092015575</v>
+      </c>
+      <c r="H54">
+        <v>-0.0462203067681751</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.0991257542038561</v>
+        <v>0.1034672555093815</v>
       </c>
       <c r="C55">
-        <v>-0.05435877400953749</v>
+        <v>0.03476853857655288</v>
       </c>
       <c r="D55">
-        <v>0.02748780709183538</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02385323815410032</v>
+      </c>
+      <c r="E55">
+        <v>-0.01764998176484835</v>
+      </c>
+      <c r="F55">
+        <v>-0.01370945277578293</v>
+      </c>
+      <c r="G55">
+        <v>0.01991039756208497</v>
+      </c>
+      <c r="H55">
+        <v>-0.1520721920237833</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1486560249753223</v>
+        <v>0.1615670263710035</v>
       </c>
       <c r="C56">
-        <v>-0.09159863652710484</v>
+        <v>0.0644443683161028</v>
       </c>
       <c r="D56">
-        <v>0.02605318881365139</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02067909514849524</v>
+      </c>
+      <c r="E56">
+        <v>0.02412404087536819</v>
+      </c>
+      <c r="F56">
+        <v>-0.0376686703633544</v>
+      </c>
+      <c r="G56">
+        <v>0.03792596501875837</v>
+      </c>
+      <c r="H56">
+        <v>-0.1771941010555573</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1283009631056231</v>
+        <v>0.09941340432209207</v>
       </c>
       <c r="C58">
-        <v>-0.006262662957603225</v>
+        <v>-0.0374558626045278</v>
       </c>
       <c r="D58">
-        <v>0.02541136566679988</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03930613002838659</v>
+      </c>
+      <c r="E58">
+        <v>-0.1668849226402052</v>
+      </c>
+      <c r="F58">
+        <v>0.02107978630584329</v>
+      </c>
+      <c r="G58">
+        <v>0.02283356197015644</v>
+      </c>
+      <c r="H58">
+        <v>0.26504319470151</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1189793859815944</v>
+        <v>0.1360145551651268</v>
       </c>
       <c r="C59">
-        <v>-0.08196916017570222</v>
+        <v>0.09046296690619504</v>
       </c>
       <c r="D59">
-        <v>-0.3534121301988318</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.3626326887212854</v>
+      </c>
+      <c r="E59">
+        <v>-0.02729057078041182</v>
+      </c>
+      <c r="F59">
+        <v>-0.01774740131089426</v>
+      </c>
+      <c r="G59">
+        <v>0.02465782532300469</v>
+      </c>
+      <c r="H59">
+        <v>0.00294168287045552</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2007100604124719</v>
+        <v>0.232165159872196</v>
       </c>
       <c r="C60">
-        <v>-0.1039311127331018</v>
+        <v>0.06999879568321067</v>
       </c>
       <c r="D60">
-        <v>0.01498900666998899</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04265455937842347</v>
+      </c>
+      <c r="E60">
+        <v>0.08941134627452751</v>
+      </c>
+      <c r="F60">
+        <v>-0.0695167877125237</v>
+      </c>
+      <c r="G60">
+        <v>-0.02741678221664071</v>
+      </c>
+      <c r="H60">
+        <v>0.147539750944798</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08005347760283144</v>
+        <v>0.08886901252710926</v>
       </c>
       <c r="C61">
-        <v>-0.05256809416591736</v>
+        <v>0.03729217862236534</v>
       </c>
       <c r="D61">
-        <v>0.04259841782843461</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04050808397921524</v>
+      </c>
+      <c r="E61">
+        <v>0.003210085369599076</v>
+      </c>
+      <c r="F61">
+        <v>-0.003638583367570237</v>
+      </c>
+      <c r="G61">
+        <v>0.0006211392759937351</v>
+      </c>
+      <c r="H61">
+        <v>-0.06174395703541367</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1286230646858753</v>
+        <v>0.1390749710124247</v>
       </c>
       <c r="C62">
-        <v>-0.06561401266072078</v>
+        <v>0.0405309117943288</v>
       </c>
       <c r="D62">
-        <v>0.03179954830364996</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.03315302459895788</v>
+      </c>
+      <c r="E62">
+        <v>0.06129733754930875</v>
+      </c>
+      <c r="F62">
+        <v>-0.01772119265052619</v>
+      </c>
+      <c r="G62">
+        <v>-0.005890091548480509</v>
+      </c>
+      <c r="H62">
+        <v>-0.1980328674241568</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05123731738227467</v>
+        <v>0.05084119308083085</v>
       </c>
       <c r="C63">
-        <v>-0.02461903865715405</v>
+        <v>0.01295797862529636</v>
       </c>
       <c r="D63">
-        <v>0.02214764618000814</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01998524823509758</v>
+      </c>
+      <c r="E63">
+        <v>-0.05055186627232764</v>
+      </c>
+      <c r="F63">
+        <v>0.01635847546141557</v>
+      </c>
+      <c r="G63">
+        <v>-0.02007162320026809</v>
+      </c>
+      <c r="H63">
+        <v>-0.05759626359679952</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1026498510369108</v>
+        <v>0.1080019541652649</v>
       </c>
       <c r="C64">
-        <v>-0.02299410707101078</v>
+        <v>0.004563881574302541</v>
       </c>
       <c r="D64">
-        <v>0.06162934492427694</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04037297672088966</v>
+      </c>
+      <c r="E64">
+        <v>-0.04728505364019112</v>
+      </c>
+      <c r="F64">
+        <v>-0.03933799805970206</v>
+      </c>
+      <c r="G64">
+        <v>-0.04678516470502911</v>
+      </c>
+      <c r="H64">
+        <v>-0.05999381092354986</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1227387124239445</v>
+        <v>0.1256932439861959</v>
       </c>
       <c r="C65">
-        <v>-0.0626622790082922</v>
+        <v>0.03983748765006041</v>
       </c>
       <c r="D65">
-        <v>-0.01635213714379002</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.00487861984637785</v>
+      </c>
+      <c r="E65">
+        <v>-0.01522165370185612</v>
+      </c>
+      <c r="F65">
+        <v>-0.0472469521467242</v>
+      </c>
+      <c r="G65">
+        <v>-0.06125689509494546</v>
+      </c>
+      <c r="H65">
+        <v>0.1384428768032416</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1437724482017285</v>
+        <v>0.1546640337097573</v>
       </c>
       <c r="C66">
-        <v>-0.07889271024814705</v>
+        <v>0.04841956146624753</v>
       </c>
       <c r="D66">
-        <v>0.110034428551927</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09463334782482775</v>
+      </c>
+      <c r="E66">
+        <v>0.03148785294454101</v>
+      </c>
+      <c r="F66">
+        <v>-0.01760570846810637</v>
+      </c>
+      <c r="G66">
+        <v>-0.04457762464614931</v>
+      </c>
+      <c r="H66">
+        <v>-0.1140386059234795</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07297826438044408</v>
+        <v>0.08449881540301629</v>
       </c>
       <c r="C67">
-        <v>-0.01496011831305065</v>
+        <v>0.005600714570520894</v>
       </c>
       <c r="D67">
-        <v>0.02320460222996215</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03009852126793836</v>
+      </c>
+      <c r="E67">
+        <v>-0.02439694906131529</v>
+      </c>
+      <c r="F67">
+        <v>-0.01829810855447983</v>
+      </c>
+      <c r="G67">
+        <v>0.01484325399762024</v>
+      </c>
+      <c r="H67">
+        <v>-0.03480450843636933</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.05799513951101673</v>
+        <v>0.05655812586845583</v>
       </c>
       <c r="C68">
-        <v>-0.05212043685458174</v>
+        <v>0.06118504466856146</v>
       </c>
       <c r="D68">
-        <v>-0.2515218926218472</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2685535561097729</v>
+      </c>
+      <c r="E68">
+        <v>-0.03622436507789098</v>
+      </c>
+      <c r="F68">
+        <v>-0.01219548798407757</v>
+      </c>
+      <c r="G68">
+        <v>0.01700636649485205</v>
+      </c>
+      <c r="H68">
+        <v>-0.002393667811644973</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05144917136757501</v>
+        <v>0.05300920741891903</v>
       </c>
       <c r="C69">
-        <v>-0.01743495327045325</v>
+        <v>0.006051439889749392</v>
       </c>
       <c r="D69">
-        <v>0.0202593322757337</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.01603377015024234</v>
+      </c>
+      <c r="E69">
+        <v>-0.02421820332590193</v>
+      </c>
+      <c r="F69">
+        <v>0.009141160012219547</v>
+      </c>
+      <c r="G69">
+        <v>0.02136148735029353</v>
+      </c>
+      <c r="H69">
+        <v>-0.04695335204954314</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003588731441854189</v>
+        <v>0.02663961203516748</v>
       </c>
       <c r="C70">
-        <v>0.005323533647421698</v>
+        <v>8.663473798263915e-05</v>
       </c>
       <c r="D70">
-        <v>0.001027179702586229</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.006361597289294567</v>
+      </c>
+      <c r="E70">
+        <v>0.02087021174736124</v>
+      </c>
+      <c r="F70">
+        <v>-0.01890210665737249</v>
+      </c>
+      <c r="G70">
+        <v>0.02746138206533183</v>
+      </c>
+      <c r="H70">
+        <v>0.02548830311619502</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05782604366300544</v>
+        <v>0.05930411421640572</v>
       </c>
       <c r="C71">
-        <v>-0.05256292157535598</v>
+        <v>0.06555947655840354</v>
       </c>
       <c r="D71">
-        <v>-0.2928143799432773</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2948603963189512</v>
+      </c>
+      <c r="E71">
+        <v>-0.03329345443670653</v>
+      </c>
+      <c r="F71">
+        <v>-0.03948287297442033</v>
+      </c>
+      <c r="G71">
+        <v>0.004014662190993144</v>
+      </c>
+      <c r="H71">
+        <v>-0.007249498021709162</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1420229924627109</v>
+        <v>0.1460846960893369</v>
       </c>
       <c r="C72">
-        <v>-0.06686332696740052</v>
+        <v>0.03657391005687256</v>
       </c>
       <c r="D72">
-        <v>-0.005534085599056852</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.007967772406696726</v>
+      </c>
+      <c r="E72">
+        <v>0.1142659743510537</v>
+      </c>
+      <c r="F72">
+        <v>0.1538201506035781</v>
+      </c>
+      <c r="G72">
+        <v>-0.1207869679671471</v>
+      </c>
+      <c r="H72">
+        <v>-0.01922039568549583</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2733258865002618</v>
+        <v>0.2872616063514953</v>
       </c>
       <c r="C73">
-        <v>-0.1118472649348642</v>
+        <v>0.04630638723096945</v>
       </c>
       <c r="D73">
-        <v>0.04672141428045467</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.09852123893441367</v>
+      </c>
+      <c r="E73">
+        <v>0.2105337061063796</v>
+      </c>
+      <c r="F73">
+        <v>-0.128125414189062</v>
+      </c>
+      <c r="G73">
+        <v>0.1318173549709269</v>
+      </c>
+      <c r="H73">
+        <v>0.4998234291079566</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07855998824124473</v>
+        <v>0.09114999192331259</v>
       </c>
       <c r="C74">
-        <v>-0.07591882204461707</v>
+        <v>0.05905695471802083</v>
       </c>
       <c r="D74">
-        <v>0.01557687610478559</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03026228217272299</v>
+      </c>
+      <c r="E74">
+        <v>0.005106179327607821</v>
+      </c>
+      <c r="F74">
+        <v>-0.0006852746651169857</v>
+      </c>
+      <c r="G74">
+        <v>0.05859713432695302</v>
+      </c>
+      <c r="H74">
+        <v>-0.11389260732984</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09541302267350665</v>
+        <v>0.1007580943147099</v>
       </c>
       <c r="C75">
-        <v>-0.05417278245831324</v>
+        <v>0.0294970622002071</v>
       </c>
       <c r="D75">
-        <v>0.008423878569088189</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.01414103326875552</v>
+      </c>
+      <c r="E75">
+        <v>-0.008789424966247659</v>
+      </c>
+      <c r="F75">
+        <v>-0.02582642897366886</v>
+      </c>
+      <c r="G75">
+        <v>0.02670896304401447</v>
+      </c>
+      <c r="H75">
+        <v>-0.1167240992108455</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1292073268301465</v>
+        <v>0.1401015992923314</v>
       </c>
       <c r="C76">
-        <v>-0.08287621488080707</v>
+        <v>0.05729669877759013</v>
       </c>
       <c r="D76">
-        <v>0.05484422125436676</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.05054397739918143</v>
+      </c>
+      <c r="E76">
+        <v>-0.02890938612203855</v>
+      </c>
+      <c r="F76">
+        <v>-0.04557590812364999</v>
+      </c>
+      <c r="G76">
+        <v>0.02185833355824787</v>
+      </c>
+      <c r="H76">
+        <v>-0.2014453423463862</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1137532831786733</v>
+        <v>0.1083122911789947</v>
       </c>
       <c r="C77">
-        <v>-0.02187997695074838</v>
+        <v>-0.006748490951583077</v>
       </c>
       <c r="D77">
-        <v>0.05331394608386379</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.02098525602214155</v>
+      </c>
+      <c r="E77">
+        <v>-0.04535205335707983</v>
+      </c>
+      <c r="F77">
+        <v>-0.1003924108237236</v>
+      </c>
+      <c r="G77">
+        <v>-0.8932391567525942</v>
+      </c>
+      <c r="H77">
+        <v>0.06465497831007359</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1013931349744205</v>
+        <v>0.1420274700529861</v>
       </c>
       <c r="C78">
-        <v>-0.04195482844957773</v>
+        <v>0.03556109988515384</v>
       </c>
       <c r="D78">
-        <v>0.08042609651996506</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.08164256469399514</v>
+      </c>
+      <c r="E78">
+        <v>-0.0600783561910222</v>
+      </c>
+      <c r="F78">
+        <v>-0.03857705023585346</v>
+      </c>
+      <c r="G78">
+        <v>-0.08445775716043884</v>
+      </c>
+      <c r="H78">
+        <v>0.04981521108339478</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1466188785488809</v>
+        <v>0.151709964315297</v>
       </c>
       <c r="C79">
-        <v>-0.07625099061704858</v>
+        <v>0.04464220412546596</v>
       </c>
       <c r="D79">
-        <v>0.03252546879616474</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.02790283718948227</v>
+      </c>
+      <c r="E79">
+        <v>0.01609948016279589</v>
+      </c>
+      <c r="F79">
+        <v>-0.02132527878477542</v>
+      </c>
+      <c r="G79">
+        <v>0.04285613158919296</v>
+      </c>
+      <c r="H79">
+        <v>-0.1758018044587162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04519494072371654</v>
+        <v>0.04295465722251389</v>
       </c>
       <c r="C80">
-        <v>-0.01462114883864752</v>
+        <v>0.005628875771558953</v>
       </c>
       <c r="D80">
-        <v>0.02816896696045058</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01792096392385535</v>
+      </c>
+      <c r="E80">
+        <v>0.01297806856379914</v>
+      </c>
+      <c r="F80">
+        <v>0.0007540837867592175</v>
+      </c>
+      <c r="G80">
+        <v>0.0310409431930049</v>
+      </c>
+      <c r="H80">
+        <v>-0.03182977838833716</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1157433840070355</v>
+        <v>0.1206628164745821</v>
       </c>
       <c r="C81">
-        <v>-0.06340017513873471</v>
+        <v>0.03776530839783285</v>
       </c>
       <c r="D81">
-        <v>0.03298749529361289</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.02261225056081126</v>
+      </c>
+      <c r="E81">
+        <v>-0.02204987058912804</v>
+      </c>
+      <c r="F81">
+        <v>-0.01697589538317533</v>
+      </c>
+      <c r="G81">
+        <v>0.06468586754341232</v>
+      </c>
+      <c r="H81">
+        <v>-0.1471241019603729</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1294788071826886</v>
+        <v>0.1315555295593282</v>
       </c>
       <c r="C82">
-        <v>-0.07834164436724139</v>
+        <v>0.0511795584918788</v>
       </c>
       <c r="D82">
-        <v>0.01785820673488656</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.02667929424547884</v>
+      </c>
+      <c r="E82">
+        <v>0.008764674410684186</v>
+      </c>
+      <c r="F82">
+        <v>-0.05809748105323208</v>
+      </c>
+      <c r="G82">
+        <v>0.05653481423209561</v>
+      </c>
+      <c r="H82">
+        <v>-0.2178699022382317</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.07440996850230214</v>
+        <v>0.08623873777747712</v>
       </c>
       <c r="C83">
-        <v>0.01143570285561881</v>
+        <v>-0.02460571481895049</v>
       </c>
       <c r="D83">
-        <v>0.02400386970583568</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03106975013277165</v>
+      </c>
+      <c r="E83">
+        <v>-0.02293604755959615</v>
+      </c>
+      <c r="F83">
+        <v>-0.05529433966110972</v>
+      </c>
+      <c r="G83">
+        <v>0.08246645811463732</v>
+      </c>
+      <c r="H83">
+        <v>0.05950632562503165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02825131732534583</v>
+        <v>0.03738797197210318</v>
       </c>
       <c r="C84">
-        <v>-0.02798251463576299</v>
+        <v>0.02239333516650062</v>
       </c>
       <c r="D84">
-        <v>0.0318664034459798</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03240406959657875</v>
+      </c>
+      <c r="E84">
+        <v>-0.02851906205130892</v>
+      </c>
+      <c r="F84">
+        <v>0.05549922549298691</v>
+      </c>
+      <c r="G84">
+        <v>0.06674946577879111</v>
+      </c>
+      <c r="H84">
+        <v>0.003566300515708546</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1192566456169316</v>
+        <v>0.1216652448079747</v>
       </c>
       <c r="C85">
-        <v>-0.05594646792401332</v>
+        <v>0.02955351145229017</v>
       </c>
       <c r="D85">
-        <v>0.01951903076001604</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.02015594932571143</v>
+      </c>
+      <c r="E85">
+        <v>-0.02066678925327776</v>
+      </c>
+      <c r="F85">
+        <v>-0.03967213324455021</v>
+      </c>
+      <c r="G85">
+        <v>0.03397843309592505</v>
+      </c>
+      <c r="H85">
+        <v>-0.1538351590637792</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.04942544228908366</v>
+        <v>0.05776511789930463</v>
       </c>
       <c r="C86">
-        <v>-0.02969806876630468</v>
+        <v>0.01947415991856128</v>
       </c>
       <c r="D86">
-        <v>0.02601488324646795</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.02664042764330485</v>
+      </c>
+      <c r="E86">
+        <v>-0.07011236678994602</v>
+      </c>
+      <c r="F86">
+        <v>-0.0253373748415314</v>
+      </c>
+      <c r="G86">
+        <v>0.0228265879671153</v>
+      </c>
+      <c r="H86">
+        <v>0.01048603195031065</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1180416386656847</v>
+        <v>0.121905675113488</v>
       </c>
       <c r="C87">
-        <v>-0.07168430783991721</v>
+        <v>0.03802923101208081</v>
       </c>
       <c r="D87">
-        <v>0.07413786659617318</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.07150755028378741</v>
+      </c>
+      <c r="E87">
+        <v>-0.0262509345731462</v>
+      </c>
+      <c r="F87">
+        <v>0.0006784849114880253</v>
+      </c>
+      <c r="G87">
+        <v>-0.1326648995784897</v>
+      </c>
+      <c r="H87">
+        <v>0.0438999614020812</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05266169367200552</v>
+        <v>0.06015741709636179</v>
       </c>
       <c r="C88">
-        <v>-0.0284772798471643</v>
+        <v>0.01835550124848652</v>
       </c>
       <c r="D88">
-        <v>0.02164209745394179</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03366663566917086</v>
+      </c>
+      <c r="E88">
+        <v>-0.02247663404060524</v>
+      </c>
+      <c r="F88">
+        <v>-0.004840272411476658</v>
+      </c>
+      <c r="G88">
+        <v>-0.005063810344222405</v>
+      </c>
+      <c r="H88">
+        <v>-0.0551071741486901</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.08437664187662332</v>
+        <v>0.09388222427469486</v>
       </c>
       <c r="C89">
-        <v>-0.07191332681157057</v>
+        <v>0.08568982785077435</v>
       </c>
       <c r="D89">
-        <v>-0.3247281101233616</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.3481448766705301</v>
+      </c>
+      <c r="E89">
+        <v>-0.07215220288084376</v>
+      </c>
+      <c r="F89">
+        <v>-0.07955482731994823</v>
+      </c>
+      <c r="G89">
+        <v>0.02636163265661745</v>
+      </c>
+      <c r="H89">
+        <v>-0.009730494354103718</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07345172513536323</v>
+        <v>0.07847767336930639</v>
       </c>
       <c r="C90">
-        <v>-0.0624855701907587</v>
+        <v>0.07195165664622689</v>
       </c>
       <c r="D90">
-        <v>-0.3204461877163663</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.306265467278652</v>
+      </c>
+      <c r="E90">
+        <v>-0.0605893024998088</v>
+      </c>
+      <c r="F90">
+        <v>0.002840894891494155</v>
+      </c>
+      <c r="G90">
+        <v>0.003325402468968416</v>
+      </c>
+      <c r="H90">
+        <v>0.0009511765295797899</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08665163779243205</v>
+        <v>0.09016258580091949</v>
       </c>
       <c r="C91">
-        <v>-0.05667526202102209</v>
+        <v>0.03445893575814994</v>
       </c>
       <c r="D91">
-        <v>0.03348917757780426</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03139784135321759</v>
+      </c>
+      <c r="E91">
+        <v>-0.01446980859517656</v>
+      </c>
+      <c r="F91">
+        <v>-0.00584589111239648</v>
+      </c>
+      <c r="G91">
+        <v>0.05496583885501385</v>
+      </c>
+      <c r="H91">
+        <v>-0.08011474009612475</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07509014736458904</v>
+        <v>0.07830904830613598</v>
       </c>
       <c r="C92">
-        <v>-0.07448194865203021</v>
+        <v>0.08620359557552711</v>
       </c>
       <c r="D92">
-        <v>-0.3395031490656961</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.3450457970607324</v>
+      </c>
+      <c r="E92">
+        <v>-0.04636368033581988</v>
+      </c>
+      <c r="F92">
+        <v>-0.0389871266636504</v>
+      </c>
+      <c r="G92">
+        <v>-0.01471825520755413</v>
+      </c>
+      <c r="H92">
+        <v>-0.01573505444241234</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.0647181472231206</v>
+        <v>0.07460242298024804</v>
       </c>
       <c r="C93">
-        <v>-0.06671817783412112</v>
+        <v>0.08226656856445909</v>
       </c>
       <c r="D93">
-        <v>-0.3103939362356041</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.3033762711721525</v>
+      </c>
+      <c r="E93">
+        <v>-0.03964776993466025</v>
+      </c>
+      <c r="F93">
+        <v>-0.03671546839453326</v>
+      </c>
+      <c r="G93">
+        <v>-0.01677498870493216</v>
+      </c>
+      <c r="H93">
+        <v>0.01313843520287265</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1320898687785786</v>
+        <v>0.1264804264798172</v>
       </c>
       <c r="C94">
-        <v>-0.05564949544615398</v>
+        <v>0.02117859756306822</v>
       </c>
       <c r="D94">
-        <v>0.04751531593966526</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0484235509823344</v>
+      </c>
+      <c r="E94">
+        <v>0.0045084543569758</v>
+      </c>
+      <c r="F94">
+        <v>-0.02317183750454806</v>
+      </c>
+      <c r="G94">
+        <v>0.0616028476582431</v>
+      </c>
+      <c r="H94">
+        <v>-0.09562605105557725</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.119293981951304</v>
+        <v>0.1261847930957983</v>
       </c>
       <c r="C95">
-        <v>-0.03102912049334873</v>
+        <v>0.003587268119328823</v>
       </c>
       <c r="D95">
-        <v>0.0619074126417803</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.07136510435190782</v>
+      </c>
+      <c r="E95">
+        <v>-0.01693461137890705</v>
+      </c>
+      <c r="F95">
+        <v>-0.03658214368026921</v>
+      </c>
+      <c r="G95">
+        <v>-0.01012458186830235</v>
+      </c>
+      <c r="H95">
+        <v>0.04470576604388999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.220823032508352</v>
+        <v>0.2089853119010058</v>
       </c>
       <c r="C97">
-        <v>-0.05413804935086941</v>
+        <v>0.002659988740901038</v>
       </c>
       <c r="D97">
-        <v>-0.1128988751713248</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.08811593064673882</v>
+      </c>
+      <c r="E97">
+        <v>0.339456680887546</v>
+      </c>
+      <c r="F97">
+        <v>0.8597429645074715</v>
+      </c>
+      <c r="G97">
+        <v>-0.06655540964868863</v>
+      </c>
+      <c r="H97">
+        <v>-0.01701278458212904</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2436308907798826</v>
+        <v>0.2754868787335779</v>
       </c>
       <c r="C98">
-        <v>-0.07238867868446326</v>
+        <v>0.0331761848536653</v>
       </c>
       <c r="D98">
-        <v>0.0458298765287301</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05573978050993902</v>
+      </c>
+      <c r="E98">
+        <v>0.1745588238139363</v>
+      </c>
+      <c r="F98">
+        <v>-0.09858068605011872</v>
+      </c>
+      <c r="G98">
+        <v>0.2258948327618814</v>
+      </c>
+      <c r="H98">
+        <v>0.22912241768755</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4509119304061118</v>
+        <v>0.2874554791896087</v>
       </c>
       <c r="C99">
-        <v>0.876159319728361</v>
+        <v>-0.9317647962680449</v>
       </c>
       <c r="D99">
-        <v>-0.05713030501304825</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.1430866686329777</v>
+      </c>
+      <c r="E99">
+        <v>-0.06863538468463039</v>
+      </c>
+      <c r="F99">
+        <v>-0.0460263606064242</v>
+      </c>
+      <c r="G99">
+        <v>0.02078447243488881</v>
+      </c>
+      <c r="H99">
+        <v>-0.06317101051994096</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04046293643887611</v>
+        <v>0.04861881938523544</v>
       </c>
       <c r="C101">
-        <v>-0.03062972428169755</v>
+        <v>0.02594812187844751</v>
       </c>
       <c r="D101">
-        <v>0.004863137882296194</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.006484587650751775</v>
+      </c>
+      <c r="E101">
+        <v>-0.0534903246942529</v>
+      </c>
+      <c r="F101">
+        <v>-0.001874098555641256</v>
+      </c>
+      <c r="G101">
+        <v>0.01049743524373933</v>
+      </c>
+      <c r="H101">
+        <v>-0.07814212456409274</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
